--- a/docs/New Microsoft Excel Worksheet.xlsx
+++ b/docs/New Microsoft Excel Worksheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\zephyr\plant_project\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93AC41D-7DA3-4C6E-9954-9DE50AA09693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,181 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Temp/Hum</t>
+  </si>
+  <si>
+    <t>Colour Sensor</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Moisture</t>
+  </si>
+  <si>
+    <t>RGB Led</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>Pin name</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>Anode</t>
+  </si>
+  <si>
+    <t>SIG</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function </t>
+  </si>
+  <si>
+    <t>Pin Name</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>Connector and pin</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Pinctrl</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Nucleo WL55JC  Board</t>
+  </si>
+  <si>
+    <t>Light sensor</t>
+  </si>
+  <si>
+    <t>CN8_2</t>
+  </si>
+  <si>
+    <t>CN8_4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Board pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADC1_IN4</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>ADC1_IN3</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>&lt;&amp;usart1_tx_pb6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp;usart1_rx_pb7&gt;;</t>
+  </si>
+  <si>
+    <t>I2C_NODE DT_NODELABEL(i2c1)</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>CN9_2</t>
+  </si>
+  <si>
+    <t>CN9_1</t>
+  </si>
+  <si>
+    <t>&amp;gpioc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PC2</t>
+  </si>
+  <si>
+    <t>gpioc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PC1 </t>
+  </si>
+  <si>
+    <t>gpiob 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PB12 </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,10 +216,62 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +280,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +578,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/New Microsoft Excel Worksheet.xlsx
+++ b/docs/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\zephyr\plant_project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93AC41D-7DA3-4C6E-9954-9DE50AA09693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2FC71-87B6-44E4-84A0-41A0100A028B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>Accelerometer</t>
   </si>
@@ -135,9 +135,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>Board pin</t>
-  </si>
-  <si>
     <t xml:space="preserve">PB2 </t>
   </si>
   <si>
@@ -156,15 +153,6 @@
     <t>TX</t>
   </si>
   <si>
-    <t>&lt;&amp;usart1_tx_pb6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp;usart1_rx_pb7&gt;;</t>
-  </si>
-  <si>
-    <t>I2C_NODE DT_NODELABEL(i2c1)</t>
-  </si>
-  <si>
     <t>PB6</t>
   </si>
   <si>
@@ -193,13 +181,67 @@
   </si>
   <si>
     <t xml:space="preserve"> PB12 </t>
+  </si>
+  <si>
+    <t>CN5_9</t>
+  </si>
+  <si>
+    <t>CN5_10</t>
+  </si>
+  <si>
+    <t>Board pin name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDA/D14 </t>
+  </si>
+  <si>
+    <t>SCL/D15</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> usart1_rx</t>
+  </si>
+  <si>
+    <t>usart1_tx</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CN5_1</t>
+  </si>
+  <si>
+    <t>CN9_8</t>
+  </si>
+  <si>
+    <t>CN9_3</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,16 +249,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDBEEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -276,19 +350,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,13 +407,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBDBEEF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -582,7 +725,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,169 +737,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -768,23 +959,23 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -801,17 +992,17 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>48</v>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -834,13 +1025,13 @@
         <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -866,17 +1057,17 @@
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -888,20 +1079,24 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
@@ -911,20 +1106,24 @@
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -934,20 +1133,26 @@
       <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A7:A8"/>
@@ -958,6 +1163,7 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:A10"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
